--- a/database/industries/dode/shekarbon/product/yearly.xlsx
+++ b/database/industries/dode/shekarbon/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E28B70-36BA-4246-A321-293A3CD02F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,7 +282,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -293,7 +294,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -340,6 +341,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -375,6 +393,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,17 +561,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -551,7 +586,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,7 +603,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -585,7 +620,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -600,7 +635,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -617,7 +652,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -634,7 +669,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -649,7 +684,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -686,7 +721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -701,7 +736,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -740,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -779,7 +814,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
@@ -816,7 +851,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -831,7 +866,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -846,7 +881,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -861,7 +896,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
@@ -898,7 +933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -913,7 +948,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
@@ -952,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
@@ -991,7 +1026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
@@ -1030,7 +1065,7 @@
         <v>41159</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1067,7 +1102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
@@ -1104,7 +1139,7 @@
         <v>41159</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1119,7 +1154,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1134,7 +1169,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1149,7 +1184,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1201,7 +1236,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>15</v>
       </c>
@@ -1240,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>22</v>
       </c>
@@ -1279,7 +1314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>18</v>
       </c>
@@ -1318,7 +1353,7 @@
         <v>10103962</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>23</v>
       </c>
@@ -1357,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +1429,7 @@
         <v>10103962</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1409,7 +1444,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1424,7 +1459,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1439,7 +1474,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>26</v>
       </c>
@@ -1476,7 +1511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1491,7 +1526,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>15</v>
       </c>
@@ -1530,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>22</v>
       </c>
@@ -1569,7 +1604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>18</v>
       </c>
@@ -1608,7 +1643,7 @@
         <v>245486091</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>23</v>
       </c>
@@ -1647,7 +1682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1662,7 +1697,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1677,7 +1712,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1692,7 +1727,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>29</v>
       </c>
@@ -1729,7 +1764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1744,7 +1779,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>15</v>
       </c>
@@ -1783,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>22</v>
       </c>
@@ -1822,7 +1857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>18</v>
       </c>
@@ -1861,7 +1896,7 @@
         <v>-7694963</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>23</v>
       </c>
@@ -1900,7 +1935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>20</v>
       </c>
@@ -1937,7 +1972,7 @@
         <v>-7694963</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1952,7 +1987,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1967,7 +2002,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1982,7 +2017,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>30</v>
       </c>
@@ -2019,7 +2054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2034,7 +2069,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>15</v>
       </c>
@@ -2073,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>22</v>
       </c>
@@ -2112,7 +2147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>18</v>
       </c>
@@ -2151,7 +2186,7 @@
         <v>2408999</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>23</v>
       </c>
@@ -2190,7 +2225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>20</v>
       </c>

--- a/database/industries/dode/shekarbon/product/yearly.xlsx
+++ b/database/industries/dode/shekarbon/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E28B70-36BA-4246-A321-293A3CD02F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124C86F6-6D7E-406F-9C64-80F24F27980B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="26">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شکربن-کربن‌ ایران‌</t>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1395/12</t>
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
@@ -562,16 +547,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N61"/>
+  <dimension ref="B1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -580,13 +565,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,13 +577,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -614,13 +589,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -629,13 +599,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -646,13 +611,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -663,13 +623,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -678,13 +633,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -705,23 +655,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -730,128 +665,78 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>27531</v>
+        <v>37728</v>
       </c>
       <c r="F11" s="11">
-        <v>32219</v>
+        <v>0</v>
       </c>
       <c r="G11" s="11">
-        <v>26658</v>
+        <v>30348</v>
       </c>
       <c r="H11" s="11">
-        <v>28149</v>
+        <v>42132</v>
       </c>
       <c r="I11" s="11">
-        <v>35508</v>
-      </c>
-      <c r="J11" s="11">
-        <v>37728</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>30348</v>
-      </c>
-      <c r="M11" s="11">
-        <v>42132</v>
-      </c>
-      <c r="N11" s="11">
         <v>44016</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>27531</v>
+        <v>37728</v>
       </c>
       <c r="F12" s="13">
-        <v>32219</v>
+        <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>26658</v>
+        <v>30348</v>
       </c>
       <c r="H12" s="13">
-        <v>28149</v>
+        <v>42132</v>
       </c>
       <c r="I12" s="13">
-        <v>35508</v>
-      </c>
-      <c r="J12" s="13">
-        <v>37728</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
-        <v>30348</v>
-      </c>
-      <c r="M12" s="13">
-        <v>42132</v>
-      </c>
-      <c r="N12" s="13">
         <v>44016</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -860,13 +745,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -875,13 +755,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -890,15 +765,10 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -917,23 +787,8 @@
       <c r="I16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -942,204 +797,124 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="C19" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>-74</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>-74</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>28100</v>
+        <v>37962</v>
       </c>
       <c r="F20" s="9">
-        <v>31232</v>
+        <v>36121</v>
       </c>
       <c r="G20" s="9">
-        <v>25116</v>
+        <v>29917</v>
       </c>
       <c r="H20" s="9">
-        <v>30440</v>
+        <v>44707</v>
       </c>
       <c r="I20" s="9">
-        <v>34526</v>
-      </c>
-      <c r="J20" s="9">
-        <v>37962</v>
-      </c>
-      <c r="K20" s="9">
-        <v>36121</v>
-      </c>
-      <c r="L20" s="9">
-        <v>29917</v>
-      </c>
-      <c r="M20" s="9">
-        <v>44707</v>
-      </c>
-      <c r="N20" s="9">
         <v>41159</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>28100</v>
+        <v>37962</v>
       </c>
       <c r="F22" s="13">
-        <v>31232</v>
+        <v>36121</v>
       </c>
       <c r="G22" s="13">
-        <v>25116</v>
+        <v>29917</v>
       </c>
       <c r="H22" s="13">
-        <v>30440</v>
+        <v>44633</v>
       </c>
       <c r="I22" s="13">
-        <v>34526</v>
-      </c>
-      <c r="J22" s="13">
-        <v>37962</v>
-      </c>
-      <c r="K22" s="13">
-        <v>36121</v>
-      </c>
-      <c r="L22" s="13">
-        <v>29917</v>
-      </c>
-      <c r="M22" s="13">
-        <v>44633</v>
-      </c>
-      <c r="N22" s="13">
         <v>41159</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1148,13 +923,8 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1163,13 +933,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1178,15 +943,10 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1205,23 +965,8 @@
       <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1230,206 +975,126 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="C29" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>-10450</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <v>-10450</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>816457</v>
+        <v>1489755</v>
       </c>
       <c r="F30" s="9">
-        <v>1350661</v>
+        <v>2682940</v>
       </c>
       <c r="G30" s="9">
-        <v>985662</v>
+        <v>2986339</v>
       </c>
       <c r="H30" s="9">
-        <v>830678</v>
+        <v>5975884</v>
       </c>
       <c r="I30" s="9">
-        <v>940509</v>
-      </c>
-      <c r="J30" s="9">
-        <v>1489755</v>
-      </c>
-      <c r="K30" s="9">
-        <v>2682940</v>
-      </c>
-      <c r="L30" s="9">
-        <v>2986339</v>
-      </c>
-      <c r="M30" s="9">
-        <v>5975884</v>
-      </c>
-      <c r="N30" s="9">
         <v>10103962</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="11">
-        <v>0</v>
-      </c>
-      <c r="M31" s="11">
-        <v>0</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>816457</v>
+        <v>1489755</v>
       </c>
       <c r="F32" s="13">
-        <v>1350661</v>
+        <v>2682940</v>
       </c>
       <c r="G32" s="13">
-        <v>985662</v>
+        <v>2986339</v>
       </c>
       <c r="H32" s="13">
-        <v>830678</v>
+        <v>5965434</v>
       </c>
       <c r="I32" s="13">
-        <v>940509</v>
-      </c>
-      <c r="J32" s="13">
-        <v>1489755</v>
-      </c>
-      <c r="K32" s="13">
-        <v>2682940</v>
-      </c>
-      <c r="L32" s="13">
-        <v>2986339</v>
-      </c>
-      <c r="M32" s="13">
-        <v>5965434</v>
-      </c>
-      <c r="N32" s="13">
         <v>10103962</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1438,13 +1103,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1453,13 +1113,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1468,15 +1123,10 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1495,23 +1145,8 @@
       <c r="I36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1520,169 +1155,104 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="11">
-        <v>0</v>
-      </c>
-      <c r="L39" s="11">
-        <v>0</v>
-      </c>
-      <c r="M39" s="11">
-        <v>0</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>29055409</v>
+        <v>39243322</v>
       </c>
       <c r="F40" s="9">
-        <v>43246062</v>
+        <v>74276460</v>
       </c>
       <c r="G40" s="9">
-        <v>39244386</v>
+        <v>99820804</v>
       </c>
       <c r="H40" s="9">
-        <v>27289028</v>
+        <v>133667748</v>
       </c>
       <c r="I40" s="9">
-        <v>27240601</v>
-      </c>
-      <c r="J40" s="9">
-        <v>39243322</v>
-      </c>
-      <c r="K40" s="9">
-        <v>74276460</v>
-      </c>
-      <c r="L40" s="9">
-        <v>99820804</v>
-      </c>
-      <c r="M40" s="9">
-        <v>133667748</v>
-      </c>
-      <c r="N40" s="9">
         <v>245486091</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="11">
-        <v>0</v>
-      </c>
-      <c r="L41" s="11">
-        <v>0</v>
-      </c>
-      <c r="M41" s="11">
-        <v>0</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1691,13 +1261,8 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1706,13 +1271,8 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1721,15 +1281,10 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1748,23 +1303,8 @@
       <c r="I45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1773,171 +1313,106 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="C48" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>7379</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <v>7379</v>
-      </c>
-      <c r="N48" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="9">
+        <v>12</v>
+      </c>
+      <c r="F49" s="9">
         <v>-1957999</v>
       </c>
-      <c r="L49" s="9">
+      <c r="G49" s="9">
         <v>-2328617</v>
       </c>
-      <c r="M49" s="9">
+      <c r="H49" s="9">
         <v>-4458179</v>
       </c>
-      <c r="N49" s="9">
+      <c r="I49" s="9">
         <v>-7694963</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="11">
-        <v>0</v>
-      </c>
-      <c r="L50" s="11">
-        <v>0</v>
-      </c>
-      <c r="M50" s="11">
-        <v>0</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -1945,34 +1420,19 @@
         <v>0</v>
       </c>
       <c r="F51" s="13">
-        <v>0</v>
+        <v>-1957999</v>
       </c>
       <c r="G51" s="13">
-        <v>0</v>
+        <v>-2328617</v>
       </c>
       <c r="H51" s="13">
-        <v>0</v>
+        <v>-4450800</v>
       </c>
       <c r="I51" s="13">
-        <v>0</v>
-      </c>
-      <c r="J51" s="13">
-        <v>0</v>
-      </c>
-      <c r="K51" s="13">
-        <v>-1957999</v>
-      </c>
-      <c r="L51" s="13">
-        <v>-2328617</v>
-      </c>
-      <c r="M51" s="13">
-        <v>-4450800</v>
-      </c>
-      <c r="N51" s="13">
         <v>-7694963</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1981,13 +1441,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1996,13 +1451,8 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2011,15 +1461,10 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2038,23 +1483,8 @@
       <c r="I55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2063,171 +1493,106 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="C58" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>-3071</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" s="11">
-        <v>0</v>
-      </c>
-      <c r="M58" s="11">
-        <v>-3071</v>
-      </c>
-      <c r="N58" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="9">
+        <v>12</v>
+      </c>
+      <c r="F59" s="9">
         <v>724941</v>
       </c>
-      <c r="L59" s="9">
+      <c r="G59" s="9">
         <v>657722</v>
       </c>
-      <c r="M59" s="9">
+      <c r="H59" s="9">
         <v>1517705</v>
       </c>
-      <c r="N59" s="9">
+      <c r="I59" s="9">
         <v>2408999</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L60" s="11">
-        <v>0</v>
-      </c>
-      <c r="M60" s="11">
-        <v>0</v>
-      </c>
-      <c r="N60" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -2235,30 +1600,15 @@
         <v>0</v>
       </c>
       <c r="F61" s="13">
-        <v>0</v>
+        <v>724941</v>
       </c>
       <c r="G61" s="13">
-        <v>0</v>
+        <v>657722</v>
       </c>
       <c r="H61" s="13">
-        <v>0</v>
+        <v>1514634</v>
       </c>
       <c r="I61" s="13">
-        <v>0</v>
-      </c>
-      <c r="J61" s="13">
-        <v>0</v>
-      </c>
-      <c r="K61" s="13">
-        <v>724941</v>
-      </c>
-      <c r="L61" s="13">
-        <v>657722</v>
-      </c>
-      <c r="M61" s="13">
-        <v>1514634</v>
-      </c>
-      <c r="N61" s="13">
         <v>2408999</v>
       </c>
     </row>

--- a/database/industries/dode/shekarbon/product/yearly.xlsx
+++ b/database/industries/dode/shekarbon/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124C86F6-6D7E-406F-9C64-80F24F27980B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C772D51F-81BC-4F59-BE65-BF242FF66D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -551,12 +551,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -566,7 +566,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -590,7 +590,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -600,7 +600,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -612,7 +612,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -624,7 +624,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -634,7 +634,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -666,7 +666,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -714,7 +714,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
@@ -736,7 +736,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -746,7 +746,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -756,7 +756,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -766,7 +766,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -798,7 +798,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
@@ -846,7 +846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
@@ -870,7 +870,7 @@
         <v>41159</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -892,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>15</v>
       </c>
@@ -914,7 +914,7 @@
         <v>41159</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -924,7 +924,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -934,7 +934,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -944,7 +944,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>19</v>
       </c>
@@ -966,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -976,7 +976,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>10103962</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>18</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>15</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>10103962</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1104,7 +1104,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1114,7 +1114,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1124,7 +1124,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1156,7 +1156,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>10</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>17</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>13</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>245486091</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1262,7 +1262,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1272,7 +1272,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1282,7 +1282,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>24</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1314,7 +1314,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>10</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>17</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>13</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>-7694963</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>15</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>-7694963</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1442,7 +1442,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1452,7 +1452,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1462,7 +1462,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1494,7 +1494,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>17</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>13</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>2408999</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>18</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>15</v>
       </c>
